--- a/map_generator_test/uploads/world_gdp.xlsx
+++ b/map_generator_test/uploads/world_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/good_mbp/Dropbox/freelance/evanapplegate.github.io/map_generator_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B39930-B43A-114B-B2C4-08C1B9195422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86CF12-5E66-1243-B55E-12E521E38F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="2960" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -907,12 +907,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF5B5B5B"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1256,9 +1250,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1617,7 +1610,7 @@
   <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2953,8 +2946,8 @@
         <v>60127</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>241</v>
       </c>
       <c r="B167">

--- a/map_generator_test/uploads/world_gdp.xlsx
+++ b/map_generator_test/uploads/world_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/good_mbp/Dropbox/freelance/evanapplegate.github.io/map_generator_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86CF12-5E66-1243-B55E-12E521E38F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E104A1-8D7B-404F-AF8B-25FF59F44528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="2960" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,13 +760,13 @@
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>gdp_per_capita</t>
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,10 +1620,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B167">
         <v>63670</v>
